--- a/xlsx/亨利·明茨伯格_intext.xlsx
+++ b/xlsx/亨利·明茨伯格_intext.xlsx
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%A9%81</t>
   </si>
   <si>
-    <t>蒙特婁</t>
+    <t>蒙特娄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8D%E6%A0%A1</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%9F%BA%E7%88%BE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>麥基爾大學</t>
+    <t>麦基尔大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%AD%A6%E5%AD%A6%E5%A3%AB</t>
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>麻省理工學院</t>
+    <t>麻省理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8%E5%8D%9A%E5%A3%AB</t>
   </si>
   <si>
-    <t>哲學博士</t>
+    <t>哲学博士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E4%BC%A6%E5%A4%9A</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
